--- a/data/trans_orig/CAGE-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Habitat-trans_orig.xlsx
@@ -1065,7 +1065,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1634,7 +1634,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -2203,7 +2203,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -2772,7 +2772,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -3341,7 +3341,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -4150,7 +4150,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -4719,7 +4719,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -5857,7 +5857,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -6426,7 +6426,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -7235,7 +7235,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -7804,7 +7804,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -8373,7 +8373,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -8942,7 +8942,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -9511,7 +9511,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -10320,7 +10320,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -10889,7 +10889,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -11458,7 +11458,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -12027,7 +12027,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -12596,7 +12596,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
